--- a/Source/Test/Data/QR.xlsx
+++ b/Source/Test/Data/QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel.Report.PDF\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F15C91-64E8-4338-A101-7B1C648E9021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB29AE87-FDEE-49DE-98FF-81123C564D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="31875" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17670" yWindow="9795" windowWidth="31875" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>#QR($Text)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>#QR("https://lowcodedemo.azurewebsites.net/")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B23"/>
+  <dimension ref="B2:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -379,11 +375,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
